--- a/docs/DQ_information.xlsx
+++ b/docs/DQ_information.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibikh\Documents\GitHub\cms-insurance-pipeline\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/460f352ff53fec83/Desktop/Capella University/Certification/PythonMain/cms-insurance-pipeline/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009E4A51-44E8-47A8-9612-B135C5F5CFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{144C8CB9-5826-4F9A-968C-F69EE269643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D18F716-DADE-4F77-9A00-F88FF53E1AD4}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9FDBB0FC-9D47-4F99-A551-81D93BE987F4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="279">
   <si>
     <t>Table</t>
   </si>
@@ -301,22 +301,13 @@
     <t>Assigned intermediary number of the Medicare Administrative Contractor (MAC).</t>
   </si>
   <si>
-    <t>Numeric Conformity and three digits only</t>
-  </si>
-  <si>
     <t>This identifies the inpatient provider type, such as short term facility, long-term, psychiatric, rehabilitation facility, and so on</t>
   </si>
   <si>
-    <t>Completeness, Alphanumeric Code</t>
-  </si>
-  <si>
     <t>The Census division to which the facility belongs for payment purposes. When a facility is reclassified for the standardized amount, MACs must change the census division to reflect the new standardized amount location.</t>
   </si>
   <si>
     <t>Enter the appropriate code for the MSA 0040-9965, or the rural area, (blank) (blank) 2 digit numeric State code such as _ _36 for Ohio, where the facility is physically located.</t>
-  </si>
-  <si>
-    <t>Completeness, and tow digit numeric code</t>
   </si>
   <si>
     <t>Enter the appropriate code for the MSA, 0040-9965, or the rural area, (blank) (blank) (2 digit numeric State code) such as _ _ 3 6 for Ohio, to which a hospital has been reclassified due to its prevailing wage rates. Leave blank or enter the actual location MSA (field 13), if not reclassified. Pricer will automatically default to the actual location MSA if this field is left blank.</t>
@@ -395,9 +386,6 @@
     <t>Enter a “Y” if this provider qualifies for a payment update under the temporary relief provision, otherwise leave blank.</t>
   </si>
   <si>
-    <t>Blank for dates ≥ 1/1/2021, or a valid code (0–3) for dates &lt; 1/1/2021.</t>
-  </si>
-  <si>
     <t>HH PPS: For “From” dates before 1/1/2021: the value to indicate if normal percentage payments should be made on RAP and/or whether payment should be reduced under the Quality Reporting Program. Valid values: 0 = Make normal percentage payment; 1 = Pay 0%; 2 = Make final payment reduced by 2%; 3 = Make final payment reduced by 2%. pay RAPs at 0%</t>
   </si>
   <si>
@@ -479,6 +467,3305 @@
   </si>
   <si>
     <t>The Medicaid ratio used to determine if the hospital qualifies for a disproportionate share adjustment and to determine the size of the capital and operating DSH adjustments.</t>
+  </si>
+  <si>
+    <t>Zero-fill for all hospitals after FY91. This Field is obsolete for hospitals as of FY92. Effective 1/1/2018, this field is used for HHAs only. Enter the HH VBP adjustment factor provided by CMS for each HHA. If no factor is provided, enter 1.00000.</t>
+  </si>
+  <si>
+    <t>For hospitals, the value must be 0 in FY1991, and 0 or NULL for FY1992 and later because the field became obsolete starting FY92. No hospital record after FY1990 should ever contain a non‑zero value.
+For HHAs (effective 1/1/2018), the value must match the CMS‑provided HH VBP adjustment factor, and if CMS does not supply one, the value must be 1.00000, formatted as a positive numeric value with five decimal places.
+For all other provider types, the field must be 0 or NULL.</t>
+  </si>
+  <si>
+    <t>Disproportionate share adjustment Percentage. Pricer calculates the Operating DSH effective 10/1/91 and bypasses this field. Zero-fill for all hospitals 10/1/91 and later.</t>
+  </si>
+  <si>
+    <t>The operatingDsh field represents the disproportionate share adjustment percentage, but CMS Pricer began calculating Operating DSH internally effective 10/1/1991, so this field is bypassed from that date forward.
+For all hospital records dated 10/1/1991 and later, the field must be zero‑filled because CMS no longer uses or expects a value here.</t>
+  </si>
+  <si>
+    <t>The fiscalYearEndDate field is no longer used, but if it appears in the file, it must be formatted as a CCYYMMDD date string.</t>
+  </si>
+  <si>
+    <t>This field is no longer used. If present, must be CCYYMMDD.</t>
+  </si>
+  <si>
+    <t>The specialPaymentIndicator field must contain one of the valid CMS codes: Y, 1, 2, or D.</t>
+  </si>
+  <si>
+    <t>The code that indicates the type of special payment provision that applies.
+Blank = not applicable
+Y = reclassified
+1 = special wage index indicator
+2 = both special wage index indicator and reclassified
+D = Dual reclassified</t>
+  </si>
+  <si>
+    <t>Code to indicate that hospital meets criteria to receive higher payment per MMA quality standards. Blank = hospital does not meet criteria' 1 = hospital quality standards have been met</t>
+  </si>
+  <si>
+    <t>The hospitalQualityIndicator field may be blank when the hospital does not meet MMA quality criteria, or “1” when the hospital does meet the required quality standards.</t>
+  </si>
+  <si>
+    <t>Enter the appropriate code for the CBSA 00001-89999, or the rural area, (blank (blank) (blank) 2 digit numeric State code such as _ _ _ 36 for Ohio, where the facility is physically located.</t>
+  </si>
+  <si>
+    <t>The cbsaActualGeographicLocation field must contain a valid geographic code representing where the facility is physically located. Acceptable values are:
+a 5‑digit CBSA code (00001–89999), or a rural indicator, which CMS represents as blank + 2‑digit numeric state code (e.g., __36 for Ohio).
+The field is required because every facility must map to either a CBSA or a rural/state combination.</t>
+  </si>
+  <si>
+    <t>The cbsaWageIndexLocation field must contain either a valid 5‑digit CBSA code (00001–89999) or a rural indicator represented as three blanks followed by a 2‑digit numeric state code (e.g., ___36 for Ohio) when a hospital is reclassified for wage index purposes.</t>
+  </si>
+  <si>
+    <t>Enter the appropriate code for the CBSA, 00001-89999, or the rural area, (blank)(blank) (blank) (2 digit numeric State code) such as _ _ _ 3 6 for Ohio, to which a hospital has been reclassified due to its prevailing wage rates. Leave blank or enter the actual location CBSA (field 35), if not reclassified. Pricer will automatically default to the actual location CBSA if this field is left blank.</t>
+  </si>
+  <si>
+    <t>The cbsaStandardizedAmountLocation field must contain either a valid 5‑digit CBSA code (00001–89999) or a rural indicator represented as three blanks followed by a 2‑digit numeric state code (e.g., ___36 for Ohio) when a hospital is reclassified for standardized amount purposes.</t>
+  </si>
+  <si>
+    <t>The appropriate code for the CBSA, 00001-89999 or the rural area, (blank) (blank)(blank) (2 digit numeric State code) such as _ _ _ 3 6 for Ohio, to which a hospital has been reclassified. Leave blank or enter the actual location CBSA (31) if not reclassified. Pricer will automatically default to the actual location CBSA if this field is left blank.</t>
+  </si>
+  <si>
+    <t>Enter the special wage index that certain providers may be assigned. Enter zeroes unless the Special Payment Indicator field equals a “1” or “2.”</t>
+  </si>
+  <si>
+    <t>The specialWageIndex field must contain a numeric value, but it should be zero for all providers unless the specialPaymentIndicator is “1” or “2.”</t>
+  </si>
+  <si>
+    <t>Per diem amount based on the interim payments to the hospital. Zero-fill if this does not apply.</t>
+  </si>
+  <si>
+    <t>The passThroughAmountForCapital field represents the per‑diem amount tied to interim capital pass‑through payments. If this provision does not apply to the hospital, the field must be zero‑filled.</t>
+  </si>
+  <si>
+    <t>Per diem amount based on the interim payments to the hospital Zerofill if this does not apply.</t>
+  </si>
+  <si>
+    <t>The passThroughAmountForDirectMedicalEducation field represents the per‑diem amount tied to interim direct medical education pass‑through payments. If this provision does not apply, the field must be zero‑filled.</t>
+  </si>
+  <si>
+    <t>Per diem amount based on the interim payments to the hospital. Zerofill if this does not apply.</t>
+  </si>
+  <si>
+    <t>The passThroughAmountForOrganAcquisition field represents the per‑diem amount tied to interim organ acquisition pass‑through payments. If this provision does not apply, the field must be zero‑filled.</t>
+  </si>
+  <si>
+    <t>The passThroughTotalAmount field represents the total per‑diem pass‑through amount based on interim payments to the hospital. If the pass‑through provision does not apply, the field must be zero‑filled</t>
+  </si>
+  <si>
+    <t>Enter the code to indicate the type of capital payment methodology for hospitals: A = Hold Harmless – cost payment for old capital; B = Hold Harmless – 100% Federal rate; C = Fully prospective blended rate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The capitalPpsPaymentCode field must contain one of the valid CMS codes: A, B, or C, representing the hospital’s capital payment methodology. Completeness can also be implemented </t>
+  </si>
+  <si>
+    <t>Must be present unless: • A "Y" is entered in the Capital Indirect Medical Education Ratio field; or
+A“08” is entered in the Provider Type field; or
+A termination date is present in Termination Date field.
+Enter the hospital's allowable adjusted base year inpatient capital costs per discharge.
+This field is not used as of 10/1/02.</t>
+  </si>
+  <si>
+    <t>The hospitalSpecificCapitalRate field must contain a numeric value unless any of the following are true:
+Capital IME Ratio = “Y”, Provider Type = “08”, or a Termination Date is present.
+When required, the field must report the hospital’s allowable adjusted base‑year inpatient capital cost per discharge.
+The field is obsolete and not used for dates on or after 10/1/2002, but when present in earlier records it must follow the above rules.</t>
+  </si>
+  <si>
+    <t>Enter the hospital's allowable inpatient "old" capital costs per discharge incurred for assets acquired before December 31, 1990, for capital PPS. Update annually.</t>
+  </si>
+  <si>
+    <t>The oldCapitalHoldHarmlessRate field must contain the hospital’s allowable inpatient “old” capital cost per discharge for assets acquired before 12/31/1990.
+The value applies only to hospitals under capital PPS hold‑harmless provisions and must be updated annually when applicable.</t>
+  </si>
+  <si>
+    <t>Enter the ratio of the hospital's allowable inpatient costs for new capital to the hospital's total allowable inpatient capital costs. Update annually.</t>
+  </si>
+  <si>
+    <t>The newCapitalHoldHarmlessRate field must contain a numeric ratio representing the hospital’s allowable inpatient new capital costs divided by its total allowable inpatient capital costs.
+The value applies only to hospitals under capital PPS hold‑harmless provisions and must be updated annually when applicable.</t>
+  </si>
+  <si>
+    <t>Derived from the latest cost report and corresponding charge data from the billing file. For hospitals for which the MAC is unable to compute a reasonable cost-to-charge ratio, it uses the appropriate statewide average cost-to-charge ratio calculated annually by CMS and published in the "Federal Register."</t>
+  </si>
+  <si>
+    <t>The capitalCostToChargeRatio field must contain a numeric value derived from the hospital’s latest cost report and corresponding billing‑file charge data.
+If the MAC cannot compute a reasonable hospital‑specific ratio, the value must be the CMS statewide average capital cost‑to‑charge ratio for that state.
+Completeness can be enforce</t>
+  </si>
+  <si>
+    <t>Enter "Y" for the first 2 years that a new hospital is in operation. Leave blank if hospital is not within first 2 years of operation.</t>
+  </si>
+  <si>
+    <t>The newHospital field may be “Y” only when the hospital is within its first 2 years of operation; otherwise it must be blank.</t>
+  </si>
+  <si>
+    <t>This is for IPPS hospitals and IRFs only. Enter the ratio of residents/interns to the hospital's average daily census. Calculate by dividing the hospital's full-time equivalent total of residents during the fiscal year by the hospital's total inpatient days. Zero-fill for a non-teaching hospital.</t>
+  </si>
+  <si>
+    <t>The capitalIndirectMedicalEducationRatio field applies only to IPPS hospitals and IRFs and must contain a numeric ratio calculated as:
+FTE residents during the fiscal year ÷ total inpatient days.
+For non‑teaching hospitals, the field must be zero‑filled.
+Completeness is required for all IPPS hospitals and IRFs; the field cannot be blank.</t>
+  </si>
+  <si>
+    <t>The per discharge exception payment to which a hospital is entitled.</t>
+  </si>
+  <si>
+    <t>The capitalExceptionPaymentRate field must contain the per‑discharge exception payment amount to which the hospital is entitled under capital PPS rules.</t>
+  </si>
+  <si>
+    <t>Enter “Y” if participating in Hospital Value Based Purchasing. Enter “N” if not participating. Note if Data Element AD (Hospital Quality Ind) is blank, then this field must = N.</t>
+  </si>
+  <si>
+    <t>The vpbParticipantIndicator field must be “Y” if the hospital participates in Hospital Value‑Based Purchasing (VBP) and “N” if it does not.
+If the Hospital Quality Indicator (Data Element AD) is blank, this field must be “N”; participation cannot be “Y” without a valid quality indicator.
+Completeness is required; the field must contain either “Y” or “N.”</t>
+  </si>
+  <si>
+    <t>Enter VBP Adjustment Factor. If prior element (vpbParticipantIndicator) is blank, leave blank.</t>
+  </si>
+  <si>
+    <t>The vbpAdjustment field must contain the numeric VBP Adjustment Factor for hospitals participating in Value‑Based Purchasing.
+If the vpbParticipantIndicator is blank, this field must also be blank; no adjustment factor can be reported without a participation indicator.</t>
+  </si>
+  <si>
+    <t>Enter “0” if not participating in Hospital Re-admissions Reduction program.
+Enter “1” if participating in Hospital Re-admissions Reduction program and payment adjustment is not 1.0000.
+Enter “2” if participating in Hospital Re-admissions Reduction program and payment adjustment is equal to 1.0000.</t>
+  </si>
+  <si>
+    <t>The hhrParticipantIndicator field must contain one of the valid numeric codes:
+0 = Not participating in the Hospital Readmissions Reduction Program (HRRP)
+1 = Participating, and the HRRP payment adjustment is not equal to 1.0000
+2 = Participating, and the HRRP payment adjustment is equal to 1.0000
+Completeness is required; the field must contain 0, 1, or 2.</t>
+  </si>
+  <si>
+    <t>Enter HRR Adjustment Factor if “1” is entered in prior element (hhrParticipantIndicator). Leave blank if “0” or “2” is entered in AW Participant indicator.</t>
+  </si>
+  <si>
+    <t>The hhrAdjustment field must contain the numeric HRR Adjustment Factor only when the hhrParticipantIndicator equals 1.
+If the hhrParticipantIndicator is 0 or 2, this field must be blank; no adjustment factor is reported for non‑participants or participants with an adjustment of exactly 1.0000.</t>
+  </si>
+  <si>
+    <t>The discount % for hospitals participating in Bundled Payments for Care Improvement Initiative (BPCI), Model 1 (demo code 61).</t>
+  </si>
+  <si>
+    <t>The bundleModel1Discount field must contain the numeric discount percentage applicable to hospitals participating in BPCI Model 1 (demo code 61).</t>
+  </si>
+  <si>
+    <t>Enter a ‘Y’ if the hospital is subject to a reduction under the HAC Reduction Program. Enter a ‘N’ if the hospital is NOT subject to a reduction under the HAC Reduction Program.</t>
+  </si>
+  <si>
+    <t>The hacReductionParticipantIndicator field must contain “Y” if the hospital is subject to a payment reduction under the Hospital‑Acquired Condition (HAC) Reduction Program, and “N” if it is not subject to a reduction.
+Completeness is required; the field must contain either “Y” or “N.”</t>
+  </si>
+  <si>
+    <t>Enter the estimated per discharge uncompensated care payment amount calculated and published by CMS for each hospital.</t>
+  </si>
+  <si>
+    <t>The uncompensatedCareAmount field must contain the numeric per‑discharge uncompensated care payment amount calculated and published annually by CMS for each hospital.
+Completeness is required for all hospitals for which CMS publishes an uncompensated care amount; the field cannot be blank when applicable.</t>
+  </si>
+  <si>
+    <t>Enter a ‘Y’ if the hospital is subject to a reduction due to NOT being an EHR meaningful user. Leave blank if the hospital is an Electronic Health Records meaningful user.</t>
+  </si>
+  <si>
+    <t>The ehrReductionIndicator field must be “Y” when the hospital is subject to a payment reduction for not being an EHR Meaningful User.
+If the hospital is an EHR Meaningful User, the field must be blank.</t>
+  </si>
+  <si>
+    <t>Enter the low-volume hospital payment adjustment factor calculated and published by the Centers for Medicare &amp; Medicaid Services (CMS) for each eligible hospital.</t>
+  </si>
+  <si>
+    <t>The lowVolumeAdjustmentFactor field must contain the numeric low‑volume hospital payment adjustment factor calculated and published by CMS for each eligible hospital.
+Completeness is required for hospitals designated as low‑volume; the field must be blank or zero only when the hospital is not eligible for the low‑volume adjustment.</t>
+  </si>
+  <si>
+    <t>Enter the County Code. Must be 5 numbers.</t>
+  </si>
+  <si>
+    <t>The countyCode field must contain a 5‑digit numeric code representing the hospital’s county.
+Completeness is required; the field cannot be blank and must always contain exactly 5 numbers (no letters, spaces, or special characters).</t>
+  </si>
+  <si>
+    <t>Enter the MPA percentage calculated and published by the Centers for Medicare &amp; Medicaid Services (CMS).</t>
+  </si>
+  <si>
+    <t>The medicarePerformanceAdjustment field must contain the numeric Medicare Performance Adjustment (MPA) percentage calculated and published by CMS for each applicable hospital.
+Completeness is required for hospitals for which CMS assigns an MPA; the field must be blank or zero only when no MPA applies.</t>
+  </si>
+  <si>
+    <t>Enter a ‘Y’ if the LTCH is subject to the DPP payment adjustment. Leave blank if the LTCH is not subject to the DPP payment adjustment.</t>
+  </si>
+  <si>
+    <t>The ltchDppIndicator field must be “Y” when the LTCH is subject to the DPP payment adjustment.
+If the LTCH is not subject to the DPP payment adjustment, the field must be blank.</t>
+  </si>
+  <si>
+    <t>Enter the supplemental wage index that certain providers may be assigned. Enter zeroes if it does not apply.</t>
+  </si>
+  <si>
+    <t>The supplementalWageIndex field must contain the numeric supplemental wage index assigned to certain eligible providers.
+If the supplemental wage index does not apply, the field must be zero‑filled.
+Completeness is required; the field must contain a numeric value (including zero when applicable).</t>
+  </si>
+  <si>
+    <t>Enter the supplemental wage index indicator that certain providers may be assigned: 1=Prior Year Wage Index*; 2=Future use; 3=Future use; Enter blank if it does not apply
+Note: For LTCH’s providers this is the IPPS prior year wage index.</t>
+  </si>
+  <si>
+    <t>The supplementalWageIndexIndicator field must contain one of the valid codes:
+1 = Prior Year Wage Index (for LTCHs, this refers to the IPPS prior‑year wage index)
+2 = Future use
+3 = Future use
+Blank = No supplemental wage index applies</t>
+  </si>
+  <si>
+    <t>Enter "Y" if hospital's wage index location has been reclassified for the year. Enter "N" if it has not been reclassified for the year. Adjust annually.</t>
+  </si>
+  <si>
+    <t>The changeCodeWageIndexReclassification field must contain “Y” if the hospital’s wage‑index location has been reclassified for the year, and “N” if it has not been reclassified.
+Completeness is required; the field must contain either “Y” or “N.”</t>
+  </si>
+  <si>
+    <t>Alpha-numeric 10 character NPI number.</t>
+  </si>
+  <si>
+    <t>The nationalProviderIdentifier field must contain a 10‑character alphanumeric NPI assigned to the provider.
+Completeness is required; the field cannot be blank and must contain exactly 10 characters with no spaces or special symbols.</t>
+  </si>
+  <si>
+    <t>The per diem payment amount based on the interim payments to the hospital that includes acquisition amounts for allogeneic stem cell. The pass-through amount is not included in total pass-through and miscellaneous field.</t>
+  </si>
+  <si>
+    <t>The passThroughAmountForAllogenicStemCellAcquisition field must contain the numeric per‑diem payment amount based on interim payments to the hospital for allogeneic stem cell acquisition costs.
+This amount is reported separately and is not included in the total pass‑through and miscellaneous field.
+Completeness is required for hospitals receiving this specific pass‑through payment; otherwise the field should be zero or blank per CMS file conventions.</t>
+  </si>
+  <si>
+    <t>The year where there is a blend of payments from cost-based principles and the Federal Long Term Care Hospital (LTCH) PPS rate.</t>
+  </si>
+  <si>
+    <t>The ppsBlendYearIndicator field must contain the year in which the LTCH’s payment is a blend of cost‑based principles and the Federal LTCH PPS rate.</t>
+  </si>
+  <si>
+    <t>A date formatted as an ISO 8601 date string (YYYY-MM-DD), specifying the date that the provider record was last updated in the VSAM PSF file. This date is inclusive.</t>
+  </si>
+  <si>
+    <t>The lastUpdated field must contain a valid ISO 8601 date string in the format YYYY‑MM‑DD, representing the date the provider record was last updated in the VSAM PSF file.
+Completeness is required; the field cannot be blank and must follow the exact four‑digit year, two‑digit month, two‑digit day structure.</t>
+  </si>
+  <si>
+    <t>Per diem amount of direct graduate medical education to be excluded from Medicare Advantage (MA) capitation rates per regulation.</t>
+  </si>
+  <si>
+    <t>The passThroughAmountForDirectGraduateMedicalEducation field must contain the numeric per‑diem DGME amount that is excluded from Medicare Advantage (MA) capitation rates per CMS regulation.
+Completeness is required for hospitals receiving DGME pass‑through payments; otherwise the field should be zero or blank per CMS file conventions.</t>
+  </si>
+  <si>
+    <t>Per diem amount of kidney acquisition costs to be excluded from MA capitation rates per regulation.</t>
+  </si>
+  <si>
+    <t>The passThroughAmountForKidneyAcquisition field must contain the numeric per‑diem kidney acquisition amount that is excluded from Medicare Advantage (MA) capitation rates per CMS regulation.
+Completeness is required for hospitals receiving kidney acquisition pass‑through payments; otherwise the field should be zero or blank per CMS file conventions.</t>
+  </si>
+  <si>
+    <t>Per diem amount of Supply Chain Cost to be excluded from Medicare Advantage (MA) capitation rates per regulation.</t>
+  </si>
+  <si>
+    <t>The passThroughAmountForSupplyChain field must contain the numeric per‑diem supply‑chain cost amount that is excluded from Medicare Advantage (MA) capitation rates per CMS regulation.
+Completeness is required for hospitals receiving this supply‑chain pass‑through payment; otherwise the field should be zero or blank per CMS file conventions</t>
+  </si>
+  <si>
+    <t>DQ rule for SQL</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Export Date Validity Check',
+    'exportDate',
+    'exportDate must be valid YYYY-MM-DD and &lt;= current date',
+    '
+    INSERT INTO dq_completeness_summary (
+        run_id, rule_id, field_name, missing_count
+    )
+    SELECT 
+        {run_id}, {rule_id}, ''exportDate'', COUNT(*)
+    FROM provider_specific_file
+    WHERE 
+        exportDate IS NULL
+        OR LTRIM(RTRIM(exportDate)) = ''''
+        OR TRY_CONVERT(date, exportDate, 23) IS NULL
+        OR TRY_CONVERT(date, exportDate, 23) &gt; CAST(GETDATE() AS date);
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, effectiveDate, nationalProviderIdentifier,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT 
+        {run_id}, {rule_id},
+        providerCcn, effectiveDate, nationalProviderIdentifier,
+        ''exportDate'', exportDate,
+        ''Invalid exportDate: must be valid YYYY-MM-DD and &lt;= current date''
+    FROM provider_specific_file
+    WHERE 
+        exportDate IS NULL
+        OR LTRIM(RTRIM(exportDate)) = ''''
+        OR TRY_CONVERT(date, exportDate, 23) IS NULL
+        OR TRY_CONVERT(date, exportDate, 23) &gt; CAST(GETDATE() AS date);
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Provider CCN Format Check',
+    'providerCcn',
+    'providerCcn must be alphanumeric and length 6–13',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT 
+        {run_id}, {rule_id}, ''Provider CCN Format Check'', ''providerCcn'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE 
+        providerCcn IS NULL
+        OR LTRIM(RTRIM(providerCcn)) = ''''
+        OR providerCcn NOT LIKE ''%[0-9A-Za-z]%''
+        OR LEN(providerCcn) &lt; 6
+        OR LEN(providerCcn) &gt; 13;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, effectiveDate, nationalProviderIdentifier,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT 
+        {run_id}, {rule_id},
+        providerCcn, effectiveDate, nationalProviderIdentifier,
+        ''providerCcn'', providerCcn,
+        ''Invalid providerCcn: must be alphanumeric and length 6–13''
+    FROM provider_specific_file
+    WHERE 
+        providerCcn IS NULL
+        OR LTRIM(RTRIM(providerCcn)) = ''''
+        OR providerCcn NOT LIKE ''%[0-9A-Za-z]%''
+        OR LEN(providerCcn) &lt; 6
+        OR LEN(providerCcn) &gt; 13;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Effective Date Validity Check',
+    'effectiveDate',
+    'effectiveDate must be a valid CCYYMMDD date, year ≥ 1983, ≤ current year, and ≤ terminationDate',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT 
+        {run_id}, {rule_id}, ''Effective Date Validity Check'', ''effectiveDate'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        TRY_CONVERT(date, effectiveDate, 112) IS NULL
+        OR LEFT(effectiveDate, 4) &lt; ''1983''
+        OR LEFT(effectiveDate, 4) &gt; CONVERT(char(4), YEAR(GETDATE()))
+        OR (
+            TRY_CONVERT(date, terminationDate, 112) IS NOT NULL
+            AND TRY_CONVERT(date, effectiveDate, 112) &gt; TRY_CONVERT(date, terminationDate, 112)
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, terminationDate,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT 
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, terminationDate,
+        ''effectiveDate'', effectiveDate,
+        ''Invalid effectiveDate: must be CCYYMMDD, year ≥ 1983, ≤ current year, and ≤ terminationDate''
+    FROM provider_specific_file
+    WHERE
+        TRY_CONVERT(date, effectiveDate, 112) IS NULL
+        OR LEFT(effectiveDate, 4) &lt; ''1983''
+        OR LEFT(effectiveDate, 4) &gt; CONVERT(char(4), YEAR(GETDATE()))
+        OR (
+            TRY_CONVERT(date, terminationDate, 112) IS NOT NULL
+            AND TRY_CONVERT(date, effectiveDate, 112) &gt; TRY_CONVERT(date, terminationDate, 112)
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Fiscal Year Begin Date Validity for Blended PPS',
+    'fiscalYearBeginDate',
+    'For providers with blended PPS payment (federalPpsBlend 1,2,3), fiscalYearBeginDate must be a valid CCYYMMDD date, must reflect the current year, and must be &lt;= effectiveDate.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT 
+        {run_id}, {rule_id}, ''Fiscal Year Begin Date Validity for Blended PPS'', ''fiscalYearBeginDate'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        -- Only apply rule when blended PPS applies
+        federalPpsBlend IN (''1'',''2'',''3'')
+        AND (
+            TRY_CONVERT(date, fiscalYearBeginDate, 112) IS NULL
+            OR LEFT(fiscalYearBeginDate, 4) &lt;&gt; CONVERT(char(4), YEAR(GETDATE()))
+            OR TRY_CONVERT(date, fiscalYearBeginDate, 112) &gt;
+               TRY_CONVERT(date, effectiveDate, 112)
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, fiscalYearBeginDate, federalPpsBlend,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT 
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, fiscalYearBeginDate, federalPpsBlend,
+        ''fiscalYearBeginDate'', fiscalYearBeginDate,
+        ''Invalid fiscalYearBeginDate for blended PPS provider: must be CCYYMMDD, match current year, and be &lt;= effectiveDate''
+    FROM provider_specific_file
+    WHERE
+        federalPpsBlend IN (''1'',''2'',''3'')
+        AND (
+            TRY_CONVERT(date, fiscalYearBeginDate, 112) IS NULL
+            OR LEFT(fiscalYearBeginDate, 4) &lt;&gt; CONVERT(char(4), YEAR(GETDATE()))
+            OR TRY_CONVERT(date, fiscalYearBeginDate, 112) &gt;
+               TRY_CONVERT(date, effectiveDate, 112)
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Termination Date Validity Check',
+    'terminationDate',
+    'terminationDate may be NULL or empty. If populated, it must be ''00000000'' or a valid CCYYMMDD date, and if a real date it must be &gt;= effectiveDate.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT 
+        {run_id}, {rule_id}, ''Termination Date Validity Check'', ''terminationDate'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        -- terminationDate is populated AND not zeroes AND invalid date
+        (
+            terminationDate IS NOT NULL
+            AND LTRIM(RTRIM(terminationDate)) &lt;&gt; ''''
+            AND terminationDate &lt;&gt; ''00000000''
+            AND TRY_CONVERT(date, terminationDate, 112) IS NULL
+        )
+        OR
+        -- terminationDate is a valid date but &lt; effectiveDate
+        (
+            TRY_CONVERT(date, terminationDate, 112) IS NOT NULL
+            AND TRY_CONVERT(date, effectiveDate, 112) IS NOT NULL
+            AND TRY_CONVERT(date, terminationDate, 112) &lt;
+                TRY_CONVERT(date, effectiveDate, 112)
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, terminationDate,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT 
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, terminationDate,
+        ''terminationDate'', terminationDate,
+        ''Invalid terminationDate: must be ''00000000'' or CCYYMMDD, and if a real date must be &gt;= effectiveDate''
+    FROM provider_specific_file
+    WHERE
+        (
+            terminationDate IS NOT NULL
+            AND LTRIM(RTRIM(terminationDate)) &lt;&gt; ''''
+            AND terminationDate &lt;&gt; ''00000000''
+            AND TRY_CONVERT(date, terminationDate, 112) IS NULL
+        )
+        OR
+        (
+            TRY_CONVERT(date, terminationDate, 112) IS NOT NULL
+            AND TRY_CONVERT(date, effectiveDate, 112) IS NOT NULL
+            AND TRY_CONVERT(date, terminationDate, 112) &lt;
+                TRY_CONVERT(date, effectiveDate, 112)
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Waiver Indicator Validity Check',
+    'waiverIndicator',
+    'waiverIndicator must be non-null, non-blank, and one of Y or N.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Waiver Indicator Validity Check'', ''waiverIndicator'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        waiverIndicator IS NULL
+        OR LTRIM(RTRIM(waiverIndicator)) = ''''
+        OR LTRIM(RTRIM(waiverIndicator)) NOT IN (''Y'', ''N'');
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, effectiveDate, nationalProviderIdentifier,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, effectiveDate, nationalProviderIdentifier,
+        ''waiverIndicator'', waiverIndicator,
+        ''Invalid waiverIndicator: must be Y or N (after trimming), and cannot be NULL or blank''
+    FROM provider_specific_file
+    WHERE
+        waiverIndicator IS NULL
+        OR LTRIM(RTRIM(waiverIndicator)) = ''''
+        OR LTRIM(RTRIM(waiverIndicator)) NOT IN (''Y'', ''N'');
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>Numeric Conformity and five digits only</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Intermediary Number Format Check',
+    'intermediaryNumber',
+    'intermediaryNumber must be non-null, non-blank, numeric only, and exactly 5 digits.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Intermediary Number Format Check'', ''intermediaryNumber'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        intermediaryNumber IS NULL
+        OR LTRIM(RTRIM(intermediaryNumber)) = ''''
+        OR LEN(LTRIM(RTRIM(intermediaryNumber))) &lt;&gt; 5
+        OR LTRIM(RTRIM(intermediaryNumber)) NOT LIKE ''[0-9][0-9][0-9][0-9][0-9]'';
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, intermediaryNumber,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, intermediaryNumber,
+        ''intermediaryNumber'', intermediaryNumber,
+        ''Invalid intermediaryNumber: must be numeric only and exactly 5 digits (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        intermediaryNumber IS NULL
+        OR LTRIM(RTRIM(intermediaryNumber)) = ''''
+        OR LEN(LTRIM(RTRIM(intermediaryNumber))) &lt;&gt; 5
+        OR LTRIM(RTRIM(intermediaryNumber)) NOT LIKE ''[0-9][0-9][0-9][0-9][0-9]'';
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>Completeness, two digit numeric Code</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Provider Type Completeness and Format Check',
+    'providerType',
+    'providerType must be non-null, non-blank, numeric only, and exactly 2 digits.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Provider Type Completeness and Format Check'', ''providerType'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        providerType IS NULL
+        OR LTRIM(RTRIM(providerType)) = ''''
+        OR LEN(LTRIM(RTRIM(providerType))) &lt;&gt; 2
+        OR LTRIM(RTRIM(providerType)) NOT LIKE ''[0-9][0-9]'';
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, providerType,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, providerType,
+        ''providerType'', providerType,
+        ''Invalid providerType: must be numeric only and exactly 2 digits (after trimming), and cannot be NULL or blank''
+    FROM provider_specific_file
+    WHERE
+        providerType IS NULL
+        OR LTRIM(RTRIM(providerType)) = ''''
+        OR LEN(LTRIM(RTRIM(providerType))) &lt;&gt; 2
+        OR LTRIM(RTRIM(providerType)) NOT LIKE ''[0-9][0-9]'';
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>Completeness, one digit Code</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Census Division Completeness and Format Check',
+    'censusDivision',
+    'censusDivision must be non-null, non-blank, numeric only, and exactly 1 digit.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Census Division Completeness and Format Check'', ''censusDivision'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        censusDivision IS NULL
+        OR LTRIM(RTRIM(censusDivision)) = ''''
+        OR LEN(LTRIM(RTRIM(censusDivision))) &lt;&gt; 1
+        OR LTRIM(RTRIM(censusDivision)) NOT LIKE ''[0-9]'';
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, censusDivision,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, censusDivision,
+        ''censusDivision'', censusDivision,
+        ''Invalid censusDivision: must be numeric only and exactly 1 digit (after trimming), and cannot be NULL or blank''
+    FROM provider_specific_file
+    WHERE
+        censusDivision IS NULL
+        OR LTRIM(RTRIM(censusDivision)) = ''''
+        OR LEN(LTRIM(RTRIM(censusDivision))) &lt;&gt; 1
+        OR LTRIM(RTRIM(censusDivision)) NOT LIKE ''[0-9]'';
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>Completeness, and two or four digit numeric code</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'MSA Actual Geographic Location Completeness and Format Check',
+    'msaActualGeographicLocation',
+    'msaActualGeographicLocation must be non-null, non-blank, numeric only, and either 2 digits (state-level rural code) or 4 digits (MSA code).',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''MSA Actual Geographic Location Completeness and Format Check'', ''msaActualGeographicLocation'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        msaActualGeographicLocation IS NULL
+        OR LTRIM(RTRIM(msaActualGeographicLocation)) = ''''
+        OR (
+            -- Not 2 digits and not 4 digits
+            LEN(LTRIM(RTRIM(msaActualGeographicLocation))) NOT IN (2, 4)
+        )
+        OR (
+            -- Not numeric
+            LTRIM(RTRIM(msaActualGeographicLocation)) NOT LIKE ''[0-9]%'' 
+            OR LTRIM(RTRIM(msaActualGeographicLocation)) LIKE ''%[^0-9]%''
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, msaActualGeographicLocation,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, msaActualGeographicLocation,
+        ''msaActualGeographicLocation'', msaActualGeographicLocation,
+        ''Invalid msaActualGeographicLocation: must be numeric only and either 2 digits (state-level rural code) or 4 digits (MSA code), and cannot be NULL or blank''
+    FROM provider_specific_file
+    WHERE
+        msaActualGeographicLocation IS NULL
+        OR LTRIM(RTRIM(msaActualGeographicLocation)) = ''''
+        OR LEN(LTRIM(RTRIM(msaActualGeographicLocation))) NOT IN (2, 4)
+        OR LTRIM(RTRIM(msaActualGeographicLocation)) NOT LIKE ''[0-9]%'' 
+        OR LTRIM(RTRIM(msaActualGeographicLocation)) LIKE ''%[^0-9]%'';
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'MSA Wage Index Location Flexible Format Check',
+    'msaWageIndexLocation',
+    'msaWageIndexLocation must be blank OR a 2-digit OR 4-digit numeric value.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''MSA Wage Index Location Flexible Format Check'', ''msaWageIndexLocation'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        -- If populated, must be 2 or 4 digits AND numeric only
+        LTRIM(RTRIM(msaWageIndexLocation)) &lt;&gt; ''''
+        AND (
+            LEN(LTRIM(RTRIM(msaWageIndexLocation))) NOT IN (2, 4)
+            OR LTRIM(RTRIM(msaWageIndexLocation)) NOT LIKE ''[0-9]%''
+            OR LTRIM(RTRIM(msaWageIndexLocation)) LIKE ''%[^0-9]%''
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, msaWageIndexLocation,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, msaWageIndexLocation,
+        ''msaWageIndexLocation'', msaWageIndexLocation,
+        ''Invalid msaWageIndexLocation: must be blank OR a 2-digit OR 4-digit numeric value (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(msaWageIndexLocation)) &lt;&gt; ''''
+        AND (
+            LEN(LTRIM(RTRIM(msaWageIndexLocation))) NOT IN (2, 4)
+            OR LTRIM(RTRIM(msaWageIndexLocation)) NOT LIKE ''[0-9]%''
+            OR LTRIM(RTRIM(msaWageIndexLocation)) LIKE ''%[^0-9]%''
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'MSA Standardized Amount Location Flexible Format Check',
+    'msaStandardizedAmountLocation',
+    'msaStandardizedAmountLocation must be blank OR a 2-digit OR 4-digit numeric value.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''MSA Standardized Amount Location Flexible Format Check'', ''msaStandardizedAmountLocation'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        -- If populated, must be 2 or 4 digits AND numeric only
+        LTRIM(RTRIM(msaStandardizedAmountLocation)) &lt;&gt; ''''
+        AND (
+            LEN(LTRIM(RTRIM(msaStandardizedAmountLocation))) NOT IN (2, 4)
+            OR LTRIM(RTRIM(msaStandardizedAmountLocation)) NOT LIKE ''[0-9]%''
+            OR LTRIM(RTRIM(msaStandardizedAmountLocation)) LIKE ''%[^0-9]%''
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, msaStandardizedAmountLocation,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, msaStandardizedAmountLocation,
+        ''msaStandardizedAmountLocation'', msaStandardizedAmountLocation,
+        ''Invalid msaStandardizedAmountLocation: must be blank OR a 2-digit OR 4-digit numeric value (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(msaStandardizedAmountLocation)) &lt;&gt; ''''
+        AND (
+            LEN(LTRIM(RTRIM(msaStandardizedAmountLocation))) NOT IN (2, 4)
+            OR LTRIM(RTRIM(msaStandardizedAmountLocation)) NOT LIKE ''[0-9]%''
+            OR LTRIM(RTRIM(msaStandardizedAmountLocation)) LIKE ''%[^0-9]%''
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>During Data profiling, observed inconsistency, would need more information from Producer about the type of responses for the PDE and filter criteria.</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Lugar Reclassification Code Validity Check',
+    'changeCodeForLugarReclassification',
+    'changeCodeForLugarReclassification must be blank OR the letter L when a valid Lugar reclassification applies.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Lugar Reclassification Code Validity Check'', ''changeCodeForLugarReclassification'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(changeCodeForLugarReclassification)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(changeCodeForLugarReclassification)) &lt;&gt; ''L'';
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, changeCodeForLugarReclassification,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, changeCodeForLugarReclassification,
+        ''changeCodeForLugarReclassification'', changeCodeForLugarReclassification,
+        ''Invalid changeCodeForLugarReclassification: must be blank OR the letter L (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(changeCodeForLugarReclassification)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(changeCodeForLugarReclassification)) &lt;&gt; ''L'';
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Temporary Relief Indicator Validity Check',
+    'temporaryReliefIndicator',
+    'temporaryReliefIndicator must be blank OR the letter Y when temporary relief applies.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Temporary Relief Indicator Validity Check'', ''temporaryReliefIndicator'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(temporaryReliefIndicator)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(temporaryReliefIndicator)) &lt;&gt; ''Y'';
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, temporaryReliefIndicator,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, temporaryReliefIndicator,
+        ''temporaryReliefIndicator'', temporaryReliefIndicator,
+        ''Invalid temporaryReliefIndicator: must be blank OR the letter Y (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(temporaryReliefIndicator)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(temporaryReliefIndicator)) &lt;&gt; ''Y'';
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Federal PPS Blend Numeric Conformity Check',
+    'federalPpsBlend',
+    'federalPpsBlend must be blank OR a numeric-only value when populated.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Federal PPS Blend Numeric Conformity Check'', ''federalPpsBlend'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(federalPpsBlend)) &lt;&gt; ''''
+        AND (
+            LTRIM(RTRIM(federalPpsBlend)) NOT LIKE ''[0-9]%''
+            OR LTRIM(RTRIM(federalPpsBlend)) LIKE ''%[^0-9]%''
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, federalPpsBlend,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, federalPpsBlend,
+        ''federalPpsBlend'', federalPpsBlend,
+        ''Invalid federalPpsBlend: must be blank OR numeric-only (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(federalPpsBlend)) &lt;&gt; ''''
+        AND (
+            LTRIM(RTRIM(federalPpsBlend)) NOT LIKE ''[0-9]%''
+            OR LTRIM(RTRIM(federalPpsBlend)) LIKE ''%[^0-9]%''
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>Blank for dates ≥ 1/1/2021, or a valid code (0–3) for dates &lt; 1/1/2021. After analyzing the data, I have suggested to implement Numericc conformity - If populated then value should be numeric</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'State Code Format Check',
+    'stateCode',
+    'stateCode must be a non-null, non-blank, 2-digit numeric value.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''State Code Format Check'', ''stateCode'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        stateCode IS NULL
+        OR LTRIM(RTRIM(stateCode)) = ''''
+        OR LEN(LTRIM(RTRIM(stateCode))) &lt;&gt; 2
+        OR LTRIM(RTRIM(stateCode)) NOT LIKE ''[0-9][0-9]'';
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, stateCode,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, stateCode,
+        ''stateCode'', stateCode,
+        ''Invalid stateCode: must be a non-null, non-blank, 2-digit numeric value (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        stateCode IS NULL
+        OR LTRIM(RTRIM(stateCode)) = ''''
+        OR LEN(LTRIM(RTRIM(stateCode))) &lt;&gt; 2
+        OR LTRIM(RTRIM(stateCode)) NOT LIKE ''[0-9][0-9]'';
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Case Mix Adjusted Cost Per Discharge Numeric Validity Check',
+    'caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate',
+    'Must be a non-null, non-blank numeric value greater than or equal to 0.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Case Mix Adjusted Cost Per Discharge Numeric Validity Check'', ''caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate IS NULL
+        OR LTRIM(RTRIM(caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate)) = ''''
+        OR TRY_CONVERT(decimal(18,4), caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate) IS NULL
+        OR TRY_CONVERT(decimal(18,4), caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate,
+        ''caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate'', caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate,
+        ''Invalid value: must be numeric and greater than or equal to 0 (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate IS NULL
+        OR LTRIM(RTRIM(caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate)) = ''''
+        OR TRY_CONVERT(decimal(18,4), caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate) IS NULL
+        OR TRY_CONVERT(decimal(18,4), caseMixAdjustedCostPerDischarge_PpsFacilitySpecificRate) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'COLA Adjustment Must Equal 1.000 for Non-AK/HI States',
+    'costOfLivingAdjustment',
+    'For all states except Alaska and Hawaii, costOfLivingAdjustment must be exactly 1.000.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''COLA Adjustment Must Equal 1.000 for Non-AK/HI States'', ''costOfLivingAdjustment'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        TRY_CONVERT(decimal(10,4), costOfLivingAdjustment) IS NULL
+        OR TRY_CONVERT(decimal(10,4), costOfLivingAdjustment) &lt;&gt; 1.0000;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, costOfLivingAdjustment,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, costOfLivingAdjustment,
+        ''costOfLivingAdjustment'', costOfLivingAdjustment,
+        ''Invalid COLA: must be exactly 1.000 for all non-AK/HI states (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        TRY_CONVERT(decimal(10,4), costOfLivingAdjustment) IS NULL
+        OR TRY_CONVERT(decimal(10,4), costOfLivingAdjustment) &lt;&gt; 1.0000;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84% of PDE is having null, </t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Bed Size Numeric Validity Check',
+    'bedSize',
+    'bedSize must be a non-null, non-blank numeric value greater than zero.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Bed Size Numeric Validity Check'', ''bedSize'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        bedSize IS NULL
+        OR LTRIM(RTRIM(bedSize)) = ''''
+        OR TRY_CONVERT(decimal(18,4), bedSize) IS NULL
+        OR TRY_CONVERT(decimal(18,4), bedSize) &lt;= 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, bedSize,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, bedSize,
+        ''bedSize'', bedSize,
+        ''Invalid bedSize: must be numeric and greater than zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        bedSize IS NULL
+        OR LTRIM(RTRIM(bedSize)) = ''''
+        OR TRY_CONVERT(decimal(18,4), bedSize) IS NULL
+        OR TRY_CONVERT(decimal(18,4), bedSize) &lt;= 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Operating Cost-to-Charge Ratio Numeric Validity Check',
+    'operatingCostToChargeRatio',
+    'operatingCostToChargeRatio must be a non-null, non-blank numeric value greater than or equal to zero.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Operating Cost-to-Charge Ratio Numeric Validity Check'', ''operatingCostToChargeRatio'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        operatingCostToChargeRatio IS NULL
+        OR LTRIM(RTRIM(operatingCostToChargeRatio)) = ''''
+        OR TRY_CONVERT(decimal(18,6), operatingCostToChargeRatio) IS NULL
+        OR TRY_CONVERT(decimal(18,6), operatingCostToChargeRatio) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, operatingCostToChargeRatio,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, operatingCostToChargeRatio,
+        ''operatingCostToChargeRatio'', operatingCostToChargeRatio,
+        ''Invalid operatingCostToChargeRatio: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        operatingCostToChargeRatio IS NULL
+        OR LTRIM(RTRIM(operatingCostToChargeRatio)) = ''''
+        OR TRY_CONVERT(decimal(18,6), operatingCostToChargeRatio) IS NULL
+        OR TRY_CONVERT(decimal(18,6), operatingCostToChargeRatio) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>Around 64% of PDE is having null, Will need additional information to validate the control</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'SSI Ratio Numeric Validity Check',
+    'supplementalSecurityIncomeRatio',
+    'supplementalSecurityIncomeRatio must be a numeric value between 0 and 1 inclusive.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''SSI Ratio Numeric Validity Check'', ''supplementalSecurityIncomeRatio'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(supplementalSecurityIncomeRatio)) &lt;&gt; ''''
+        AND (
+            TRY_CONVERT(decimal(18,6), supplementalSecurityIncomeRatio) IS NULL
+            OR TRY_CONVERT(decimal(18,6), supplementalSecurityIncomeRatio) &lt; 0
+            OR TRY_CONVERT(decimal(18,6), supplementalSecurityIncomeRatio) &gt; 1
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, supplementalSecurityIncomeRatio,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, supplementalSecurityIncomeRatio,
+        ''supplementalSecurityIncomeRatio'', supplementalSecurityIncomeRatio,
+        ''Invalid supplementalSecurityIncomeRatio: must be numeric and between 0 and 1 inclusive (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(supplementalSecurityIncomeRatio)) &lt;&gt; ''''
+        AND (
+            TRY_CONVERT(decimal(18,6), supplementalSecurityIncomeRatio) IS NULL
+            OR TRY_CONVERT(decimal(18,6), supplementalSecurityIncomeRatio) &lt; 0
+            OR TRY_CONVERT(decimal(18,6), supplementalSecurityIncomeRatio) &gt; 1
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Medicaid Ratio Numeric Validity Check',
+    'medicaidRatio',
+    'medicaidRatio must be a numeric value between 0 and 1 inclusive when populated.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Medicaid Ratio Numeric Validity Check'', ''medicaidRatio'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(medicaidRatio)) &lt;&gt; ''''
+        AND (
+            TRY_CONVERT(decimal(18,6), medicaidRatio) IS NULL
+            OR TRY_CONVERT(decimal(18,6), medicaidRatio) &lt; 0
+            OR TRY_CONVERT(decimal(18,6), medicaidRatio) &gt; 1
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, medicaidRatio,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, medicaidRatio,
+        ''medicaidRatio'', medicaidRatio,
+        ''Invalid medicaidRatio: must be numeric and between 0 and 1 inclusive (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(medicaidRatio)) &lt;&gt; ''''
+        AND (
+            TRY_CONVERT(decimal(18,6), medicaidRatio) IS NULL
+            OR TRY_CONVERT(decimal(18,6), medicaidRatio) &lt; 0
+            OR TRY_CONVERT(decimal(18,6), medicaidRatio) &gt; 1
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>Around 85% of PDE is having null, Will need additional information to validate the control</t>
+  </si>
+  <si>
+    <t>Around100% of PDE is having null, Will need additional information to validate the control</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Fiscal Year End Date Format and Validity Check',
+    'fiscalYearEndDate',
+    'If populated, fiscalYearEndDate must be a valid date in YYYY-MM-DD format.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Fiscal Year End Date Format and Validity Check'', ''fiscalYearEndDate'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(fiscalYearEndDate)) &lt;&gt; ''''
+        AND (
+            fiscalYearEndDate NOT LIKE ''[1-2][0-9][0-9][0-9]-[0-1][0-9]-[0-3][0-9]''
+            OR TRY_CONVERT(date, fiscalYearEndDate) IS NULL
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, fiscalYearEndDate,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, fiscalYearEndDate,
+        ''fiscalYearEndDate'', fiscalYearEndDate,
+        ''Invalid fiscalYearEndDate: must be a valid date in YYYY-MM-DD format (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(fiscalYearEndDate)) &lt;&gt; ''''
+        AND (
+            fiscalYearEndDate NOT LIKE ''[1-2][0-9][0-9][0-9]-[0-1][0-9]-[0-3][0-9]''
+            OR TRY_CONVERT(date, fiscalYearEndDate) IS NULL
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Special Payment Indicator Valid Value Check',
+    'specialPaymentIndicator',
+    'specialPaymentIndicator must be blank or one of the valid codes: Y, 1, 2, D.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Special Payment Indicator Valid Value Check'', ''specialPaymentIndicator'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(specialPaymentIndicator)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(specialPaymentIndicator)) NOT IN (''Y'', ''1'', ''2'', ''D'');
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, specialPaymentIndicator,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, specialPaymentIndicator,
+        ''specialPaymentIndicator'', specialPaymentIndicator,
+        ''Invalid specialPaymentIndicator: must be blank or one of {Y, 1, 2, D} (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(specialPaymentIndicator)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(specialPaymentIndicator)) NOT IN (''Y'', ''1'', ''2'', ''D'');
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Hospital Quality Indicator Valid Value Check',
+    'hospitalQualityIndicator',
+    'hospitalQualityIndicator must be blank or the value 1.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Hospital Quality Indicator Valid Value Check'', ''hospitalQualityIndicator'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(hospitalQualityIndicator)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(hospitalQualityIndicator)) NOT IN (''1'');
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, hospitalQualityIndicator,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, hospitalQualityIndicator,
+        ''hospitalQualityIndicator'', hospitalQualityIndicator,
+        ''Invalid hospitalQualityIndicator: must be blank or the value 1 (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(hospitalQualityIndicator)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(hospitalQualityIndicator)) NOT IN (''1'');
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'CBSA Actual Geographic Location Validity Check',
+    'cbsaActualGeographicLocation',
+    'cbsaActualGeographicLocation must be blank, a 2-digit numeric rural state code, or a 5-digit numeric CBSA code between 00001 and 89999.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''CBSA Actual Geographic Location Validity Check'', ''cbsaActualGeographicLocation'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(cbsaActualGeographicLocation)) &lt;&gt; ''''
+        AND NOT (
+            -- 2-digit numeric rural code
+            (LEN(LTRIM(RTRIM(cbsaActualGeographicLocation))) = 2
+             AND LTRIM(RTRIM(cbsaActualGeographicLocation)) LIKE ''[0-9][0-9]'')
+            OR
+            -- 5-digit numeric CBSA code 00001–89999
+            (LEN(LTRIM(RTRIM(cbsaActualGeographicLocation))) = 5
+             AND LTRIM(RTRIM(cbsaActualGeographicLocation)) LIKE ''[0-9][0-9][0-9][0-9][0-9]''
+             AND TRY_CONVERT(int, LTRIM(RTRIM(cbsaActualGeographicLocation))) BETWEEN 1 AND 89999)
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, cbsaActualGeographicLocation,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, cbsaActualGeographicLocation,
+        ''cbsaActualGeographicLocation'', cbsaActualGeographicLocation,
+        ''Invalid cbsaActualGeographicLocation: must be blank, a 2-digit numeric rural code, or a 5-digit numeric CBSA code between 00001 and 89999 (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(cbsaActualGeographicLocation)) &lt;&gt; ''''
+        AND NOT (
+            (LEN(LTRIM(RTRIM(cbsaActualGeographicLocation))) = 2
+             AND LTRIM(RTRIM(cbsaActualGeographicLocation)) LIKE ''[0-9][0-9]'')
+            OR
+            (LEN(LTRIM(RTRIM(cbsaActualGeographicLocation))) = 5
+             AND LTRIM(RTRIM(cbsaActualGeographicLocation)) LIKE ''[0-9][0-9][0-9][0-9][0-9]''
+             AND TRY_CONVERT(int, LTRIM(RTRIM(cbsaActualGeographicLocation))) BETWEEN 1 AND 89999)
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'CBSA Wage Index Location Validity Check',
+    'cbsaWageIndexLocation',
+    'cbsaWageIndexLocation must be NULL, blank, a 2-digit numeric rural state code, or a 5-digit numeric CBSA code between 00001 and 89999.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''CBSA Wage Index Location Validity Check'', ''cbsaWageIndexLocation'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        cbsaWageIndexLocation IS NOT NULL
+        AND LTRIM(RTRIM(cbsaWageIndexLocation)) &lt;&gt; ''''
+        AND NOT (
+            -- 2-digit numeric rural code
+            (LEN(LTRIM(RTRIM(cbsaWageIndexLocation))) = 2
+             AND LTRIM(RTRIM(cbsaWageIndexLocation)) LIKE ''[0-9][0-9]'')
+            OR
+            -- 5-digit numeric CBSA code 00001–89999
+            (LEN(LTRIM(RTRIM(cbsaWageIndexLocation))) = 5
+             AND LTRIM(RTRIM(cbsaWageIndexLocation)) LIKE ''[0-9][0-9][0-9][0-9][0-9]''
+             AND TRY_CONVERT(int, LTRIM(RTRIM(cbsaWageIndexLocation))) BETWEEN 1 AND 89999)
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, cbsaWageIndexLocation,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, cbsaWageIndexLocation,
+        ''cbsaWageIndexLocation'', cbsaWageIndexLocation,
+        ''Invalid cbsaWageIndexLocation: must be NULL, blank, a 2-digit numeric rural code, or a 5-digit numeric CBSA code between 00001 and 89999 (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        cbsaWageIndexLocation IS NOT NULL
+        AND LTRIM(RTRIM(cbsaWageIndexLocation)) &lt;&gt; ''''
+        AND NOT (
+            (LEN(LTRIM(RTRIM(cbsaWageIndexLocation))) = 2
+             AND LTRIM(RTRIM(cbsaWageIndexLocation)) LIKE ''[0-9][0-9]'')
+            OR
+            (LEN(LTRIM(RTRIM(cbsaWageIndexLocation))) = 5
+             AND LTRIM(RTRIM(cbsaWageIndexLocation)) LIKE ''[0-9][0-9][0-9][0-9][0-9]''
+             AND TRY_CONVERT(int, LTRIM(RTRIM(cbsaWageIndexLocation))) BETWEEN 1 AND 89999)
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'CBSA Standardized Amount Location Validity Check',
+    'cbsaStandardizedAmountLocation',
+    'cbsaStandardizedAmountLocation must be NULL, blank, a 2-digit numeric rural state code, or a 5-digit numeric CBSA code between 00001 and 89999.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''CBSA Standardized Amount Location Validity Check'', ''cbsaStandardizedAmountLocation'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        cbsaStandardizedAmountLocation IS NOT NULL
+        AND LTRIM(RTRIM(cbsaStandardizedAmountLocation)) &lt;&gt; ''''
+        AND NOT (
+            -- 2-digit numeric rural code
+            (LEN(LTRIM(RTRIM(cbsaStandardizedAmountLocation))) = 2
+             AND LTRIM(RTRIM(cbsaStandardizedAmountLocation)) LIKE ''[0-9][0-9]'')
+            OR
+            -- 5-digit numeric CBSA code 00001–89999
+            (LEN(LTRIM(RTRIM(cbsaStandardizedAmountLocation))) = 5
+             AND LTRIM(RTRIM(cbsaStandardizedAmountLocation)) LIKE ''[0-9][0-9][0-9][0-9][0-9]''
+             AND TRY_CONVERT(int, LTRIM(RTRIM(cbsaStandardizedAmountLocation))) BETWEEN 1 AND 89999)
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, cbsaStandardizedAmountLocation,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, cbsaStandardizedAmountLocation,
+        ''cbsaStandardizedAmountLocation'', cbsaStandardizedAmountLocation,
+        ''Invalid cbsaStandardizedAmountLocation: must be NULL, blank, a 2-digit numeric rural code, or a 5-digit numeric CBSA code between 00001 and 89999 (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        cbsaStandardizedAmountLocation IS NOT NULL
+        AND LTRIM(RTRIM(cbsaStandardizedAmountLocation)) &lt;&gt; ''''
+        AND NOT (
+            (LEN(LTRIM(RTRIM(cbsaStandardizedAmountLocation))) = 2
+             AND LTRIM(RTRIM(cbsaStandardizedAmountLocation)) LIKE ''[0-9][0-9]'')
+            OR
+            (LEN(LTRIM(RTRIM(cbsaStandardizedAmountLocation))) = 5
+             AND LTRIM(RTRIM(cbsaStandardizedAmountLocation)) LIKE ''[0-9][0-9][0-9][0-9][0-9]''
+             AND TRY_CONVERT(int, LTRIM(RTRIM(cbsaStandardizedAmountLocation))) BETWEEN 1 AND 89999)
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>Around 99.78% of PDE is having null, Will need additional information to validate the control</t>
+  </si>
+  <si>
+    <t>Around 99.82% of PDE is having null, Will need additional information to validate the control</t>
+  </si>
+  <si>
+    <t>Around 83.48% of PDE is having null, Will need additional information to validate the control</t>
+  </si>
+  <si>
+    <t>Around 97.62% of PDE is having null, Will need additional information to validate the control</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Pass-Through Total Amount Numeric Validity Check',
+    'passThroughTotalAmount',
+    'passThroughTotalAmount must be a non-null, non-blank numeric value greater than or equal to zero. Zero-fill is valid when pass-through does not apply.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Pass-Through Total Amount Numeric Validity Check'', ''passThroughTotalAmount'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        passThroughTotalAmount IS NULL
+        OR LTRIM(RTRIM(passThroughTotalAmount)) = ''''
+        OR TRY_CONVERT(decimal(18,6), passThroughTotalAmount) IS NULL
+        OR TRY_CONVERT(decimal(18,6), passThroughTotalAmount) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, passThroughTotalAmount,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, passThroughTotalAmount,
+        ''passThroughTotalAmount'', passThroughTotalAmount,
+        ''Invalid passThroughTotalAmount: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        passThroughTotalAmount IS NULL
+        OR LTRIM(RTRIM(passThroughTotalAmount)) = ''''
+        OR TRY_CONVERT(decimal(18,6), passThroughTotalAmount) IS NULL
+        OR TRY_CONVERT(decimal(18,6), passThroughTotalAmount) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Capital PPS Payment Code Valid Value Check',
+    'capitalPpsPaymentCode',
+    'capitalPpsPaymentCode must be blank or one of the valid codes: A, B, or C.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Capital PPS Payment Code Valid Value Check'', ''capitalPpsPaymentCode'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(capitalPpsPaymentCode)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(capitalPpsPaymentCode)) NOT IN (''A'', ''B'', ''C'');
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, capitalPpsPaymentCode,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, capitalPpsPaymentCode,
+        ''capitalPpsPaymentCode'', capitalPpsPaymentCode,
+        ''Invalid capitalPpsPaymentCode: must be blank or one of {A, B, C} (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(capitalPpsPaymentCode)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(capitalPpsPaymentCode)) NOT IN (''A'', ''B'', ''C'');
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Hospital Specific Capital Rate Conditional Validity Check',
+    'hospitalSpecificCapitalRate',
+    'hospitalSpecificCapitalRate must be numeric and &gt;= 0 unless providerType = ''08'' or terminationDate is populated.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Hospital Specific Capital Rate Conditional Validity Check'', ''hospitalSpecificCapitalRate'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        (
+            -- NOT exempt: providerType not 08 AND terminationDate is NULL
+            providerType &lt;&gt; ''08''
+            AND terminationDate IS NULL
+            AND (
+                hospitalSpecificCapitalRate IS NULL
+                OR LTRIM(RTRIM(hospitalSpecificCapitalRate)) = ''''
+                OR TRY_CONVERT(decimal(18,6), hospitalSpecificCapitalRate) IS NULL
+                OR TRY_CONVERT(decimal(18,6), hospitalSpecificCapitalRate) &lt; 0
+            )
+        )
+        OR
+        (
+            -- Exempt rows: if populated, must still be numeric &gt;= 0
+            (providerType = ''08'' OR terminationDate IS NOT NULL)
+            AND LTRIM(RTRIM(hospitalSpecificCapitalRate)) &lt;&gt; ''''
+            AND (
+                TRY_CONVERT(decimal(18,6), hospitalSpecificCapitalRate) IS NULL
+                OR TRY_CONVERT(decimal(18,6), hospitalSpecificCapitalRate) &lt; 0
+            )
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, hospitalSpecificCapitalRate,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, hospitalSpecificCapitalRate,
+        ''hospitalSpecificCapitalRate'', hospitalSpecificCapitalRate,
+        CASE
+            WHEN providerType &lt;&gt; ''08''
+                 AND terminationDate IS NULL
+                 AND (hospitalSpecificCapitalRate IS NULL OR LTRIM(RTRIM(hospitalSpecificCapitalRate)) = '''')
+                THEN ''Missing hospitalSpecificCapitalRate: required unless providerType = 08 or terminationDate present.''
+            WHEN TRY_CONVERT(decimal(18,6), hospitalSpecificCapitalRate) IS NULL
+                THEN ''Invalid hospitalSpecificCapitalRate: must be numeric.''
+            WHEN TRY_CONVERT(decimal(18,6), hospitalSpecificCapitalRate) &lt; 0
+                THEN ''Invalid hospitalSpecificCapitalRate: must be &gt;= 0.''
+        END
+    FROM provider_specific_file
+    WHERE
+        (
+            providerType &lt;&gt; ''08''
+            AND terminationDate IS NULL
+            AND (
+                hospitalSpecificCapitalRate IS NULL
+                OR LTRIM(RTRIM(hospitalSpecificCapitalRate)) = ''''
+                OR TRY_CONVERT(decimal(18,6), hospitalSpecificCapitalRate) IS NULL
+                OR TRY_CONVERT(decimal(18,6), hospitalSpecificCapitalRate) &lt; 0
+            )
+        )
+        OR
+        (
+            (providerType = ''08'' OR terminationDate IS NOT NULL)
+            AND LTRIM(RTRIM(hospitalSpecificCapitalRate)) &lt;&gt; ''''
+            AND (
+                TRY_CONVERT(decimal(18,6), hospitalSpecificCapitalRate) IS NULL
+                OR TRY_CONVERT(decimal(18,6), hospitalSpecificCapitalRate) &lt; 0
+            )
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Old Capital Hold Harmless Rate Numeric Validity Check',
+    'oldCapitalHoldHarmlessRate',
+    'oldCapitalHoldHarmlessRate must be a non-null, non-blank numeric value greater than or equal to zero.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Old Capital Hold Harmless Rate Numeric Validity Check'', ''oldCapitalHoldHarmlessRate'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        oldCapitalHoldHarmlessRate IS NULL
+        OR LTRIM(RTRIM(oldCapitalHoldHarmlessRate)) = ''''
+        OR TRY_CONVERT(decimal(18,6), oldCapitalHoldHarmlessRate) IS NULL
+        OR TRY_CONVERT(decimal(18,6), oldCapitalHoldHarmlessRate) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, oldCapitalHoldHarmlessRate,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, oldCapitalHoldHarmlessRate,
+        ''oldCapitalHoldHarmlessRate'', oldCapitalHoldHarmlessRate,
+        ''Invalid oldCapitalHoldHarmlessRate: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        oldCapitalHoldHarmlessRate IS NULL
+        OR LTRIM(RTRIM(oldCapitalHoldHarmlessRate)) = ''''
+        OR TRY_CONVERT(decimal(18,6), oldCapitalHoldHarmlessRate) IS NULL
+        OR TRY_CONVERT(decimal(18,6), oldCapitalHoldHarmlessRate) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'New Capital Hold Harmless Rate Numeric Ratio Check',
+    'newCapitalHoldHarmlessRate',
+    'newCapitalHoldHarmlessRate must be a non-null, non-blank numeric ratio between 0 and 1 inclusive.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''New Capital Hold Harmless Rate Numeric Ratio Check'', ''newCapitalHoldHarmlessRate'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        newCapitalHoldHarmlessRate IS NULL
+        OR LTRIM(RTRIM(newCapitalHoldHarmlessRate)) = ''''
+        OR TRY_CONVERT(decimal(18,6), newCapitalHoldHarmlessRate) IS NULL
+        OR TRY_CONVERT(decimal(18,6), newCapitalHoldHarmlessRate) &lt; 0
+        OR TRY_CONVERT(decimal(18,6), newCapitalHoldHarmlessRate) &gt; 1;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, newCapitalHoldHarmlessRate,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, newCapitalHoldHarmlessRate,
+        ''newCapitalHoldHarmlessRate'', newCapitalHoldHarmlessRate,
+        ''Invalid newCapitalHoldHarmlessRate: must be numeric and between 0 and 1 inclusive (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        newCapitalHoldHarmlessRate IS NULL
+        OR LTRIM(RTRIM(newCapitalHoldHarmlessRate)) = ''''
+        OR TRY_CONVERT(decimal(18,6), newCapitalHoldHarmlessRate) IS NULL
+        OR TRY_CONVERT(decimal(18,6), newCapitalHoldHarmlessRate) &lt; 0
+        OR TRY_CONVERT(decimal(18,6), newCapitalHoldHarmlessRate) &gt; 1;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Capital Cost-To-Charge Ratio Numeric Validity Check',
+    'capitalCostToChargeRatio',
+    'capitalCostToChargeRatio must be a non-null, non-blank numeric value greater than or equal to zero.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Capital Cost-To-Charge Ratio Numeric Validity Check'', ''capitalCostToChargeRatio'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        capitalCostToChargeRatio IS NULL
+        OR LTRIM(RTRIM(capitalCostToChargeRatio)) = ''''
+        OR TRY_CONVERT(decimal(18,6), capitalCostToChargeRatio) IS NULL
+        OR TRY_CONVERT(decimal(18,6), capitalCostToChargeRatio) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, capitalCostToChargeRatio,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, capitalCostToChargeRatio,
+        ''capitalCostToChargeRatio'', capitalCostToChargeRatio,
+        ''Invalid capitalCostToChargeRatio: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        capitalCostToChargeRatio IS NULL
+        OR LTRIM(RTRIM(capitalCostToChargeRatio)) = ''''
+        OR TRY_CONVERT(decimal(18,6), capitalCostToChargeRatio) IS NULL
+        OR TRY_CONVERT(decimal(18,6), capitalCostToChargeRatio) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'New Hospital Indicator Valid Value Check',
+    'newHospital',
+    'newHospital must be blank/NULL or the value ''Y''.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''New Hospital Indicator Valid Value Check'', ''newHospital'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(newHospital)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(newHospital)) NOT IN (''Y'');
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, newHospital,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, newHospital,
+        ''newHospital'', newHospital,
+        ''Invalid newHospital: must be blank/NULL or ''Y'' (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(newHospital)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(newHospital)) NOT IN (''Y'');
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Capital IME Ratio Numeric Validity Check',
+    'capitalIndirectMedicalEducationRatio',
+    'capitalIndirectMedicalEducationRatio must be a non-null, non-blank numeric value greater than or equal to zero. Zero-fill is valid for non-teaching hospitals.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Capital IME Ratio Numeric Validity Check'', ''capitalIndirectMedicalEducationRatio'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        capitalIndirectMedicalEducationRatio IS NULL
+        OR LTRIM(RTRIM(capitalIndirectMedicalEducationRatio)) = ''''
+        OR TRY_CONVERT(decimal(18,6), capitalIndirectMedicalEducationRatio) IS NULL
+        OR TRY_CONVERT(decimal(18,6), capitalIndirectMedicalEducationRatio) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, capitalIndirectMedicalEducationRatio,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, capitalIndirectMedicalEducationRatio,
+        ''capitalIndirectMedicalEducationRatio'', capitalIndirectMedicalEducationRatio,
+        ''Invalid capitalIndirectMedicalEducationRatio: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        capitalIndirectMedicalEducationRatio IS NULL
+        OR LTRIM(RTRIM(capitalIndirectMedicalEducationRatio)) = ''''
+        OR TRY_CONVERT(decimal(18,6), capitalIndirectMedicalEducationRatio) IS NULL
+        OR TRY_CONVERT(decimal(18,6), capitalIndirectMedicalEducationRatio) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Capital Exception Payment Rate Numeric Validity Check',
+    'capitalExceptionPaymentRate',
+    'capitalExceptionPaymentRate must be a non-null, non-blank numeric value greater than or equal to zero.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Capital Exception Payment Rate Numeric Validity Check'', ''capitalExceptionPaymentRate'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        capitalExceptionPaymentRate IS NULL
+        OR LTRIM(RTRIM(capitalExceptionPaymentRate)) = ''''
+        OR TRY_CONVERT(decimal(18,6), capitalExceptionPaymentRate) IS NULL
+        OR TRY_CONVERT(decimal(18,6), capitalExceptionPaymentRate) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, capitalExceptionPaymentRate,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, capitalExceptionPaymentRate,
+        ''capitalExceptionPaymentRate'', capitalExceptionPaymentRate,
+        ''Invalid capitalExceptionPaymentRate: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        capitalExceptionPaymentRate IS NULL
+        OR LTRIM(RTRIM(capitalExceptionPaymentRate)) = ''''
+        OR TRY_CONVERT(decimal(18,6), capitalExceptionPaymentRate) IS NULL
+        OR TRY_CONVERT(decimal(18,6), capitalExceptionPaymentRate) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'VBP Participant Indicator Validity and Dependency Check',
+    'vbpParticipantIndicator',
+    'vbpParticipantIndicator must be ''Y'' or ''N''. If hospitalQualityIndicator is blank or NULL, vbpParticipantIndicator must be ''N''.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''VBP Participant Indicator Validity and Dependency Check'', ''vbpParticipantIndicator'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        -- Invalid values
+        LTRIM(RTRIM(vbpParticipantIndicator)) NOT IN (''Y'', ''N'')
+        OR
+        -- Dependency: if hospitalQualityIndicator is blank/NULL, vbp must be N
+        (
+            (hospitalQualityIndicator IS NULL OR LTRIM(RTRIM(hospitalQualityIndicator)) = '''')
+            AND LTRIM(RTRIM(vbpParticipantIndicator)) &lt;&gt; ''N''
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, vbpParticipantIndicator,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, vbpParticipantIndicator,
+        ''vbpParticipantIndicator'', vbpParticipantIndicator,
+        CASE
+            WHEN LTRIM(RTRIM(vbpParticipantIndicator)) NOT IN (''Y'', ''N'')
+                THEN ''Invalid vbpParticipantIndicator: must be Y or N (after trimming).''
+            WHEN (hospitalQualityIndicator IS NULL OR LTRIM(RTRIM(hospitalQualityIndicator)) = '''')
+                 AND LTRIM(RTRIM(vbpParticipantIndicator)) &lt;&gt; ''N''
+                THEN ''Invalid vbpParticipantIndicator: must be N when hospitalQualityIndicator is blank or NULL.''
+        END
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(vbpParticipantIndicator)) NOT IN (''Y'', ''N'')
+        OR
+        (
+            (hospitalQualityIndicator IS NULL OR LTRIM(RTRIM(hospitalQualityIndicator)) = '''')
+            AND LTRIM(RTRIM(vbpParticipantIndicator)) &lt;&gt; ''N''
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'VBP Adjustment Factor Conditional Validity Check',
+    'vbpAdjustment',
+    'vbpAdjustment must be numeric and &gt;= 0 when vbpParticipantIndicator is populated. If vbpParticipantIndicator is blank or NULL, vbpAdjustment must also be blank or NULL.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''VBP Adjustment Factor Conditional Validity Check'', ''vbpAdjustment'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        -- Case 1: vbpParticipantIndicator is blank → vbpAdjustment must also be blank
+        (
+            (vbpParticipantIndicator IS NULL OR LTRIM(RTRIM(vbpParticipantIndicator)) = '''')
+            AND LTRIM(RTRIM(vbpAdjustment)) &lt;&gt; ''''
+        )
+        OR
+        -- Case 2: vbpParticipantIndicator is populated → vbpAdjustment must be numeric &gt;= 0
+        (
+            LTRIM(RTRIM(vbpParticipantIndicator)) &lt;&gt; ''''
+            AND (
+                vbpAdjustment IS NULL
+                OR LTRIM(RTRIM(vbpAdjustment)) = ''''
+                OR TRY_CONVERT(decimal(18,6), vbpAdjustment) IS NULL
+                OR TRY_CONVERT(decimal(18,6), vbpAdjustment) &lt; 0
+            )
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, vbpAdjustment,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, vbpAdjustment,
+        ''vbpAdjustment'', vbpAdjustment,
+        CASE
+            WHEN (vbpParticipantIndicator IS NULL OR LTRIM(RTRIM(vbpParticipantIndicator)) = '''')
+                 AND LTRIM(RTRIM(vbpAdjustment)) &lt;&gt; ''''
+                THEN ''Invalid vbpAdjustment: must be blank when vbpParticipantIndicator is blank or NULL.''
+            WHEN LTRIM(RTRIM(vbpParticipantIndicator)) &lt;&gt; ''''
+                 AND (vbpAdjustment IS NULL OR LTRIM(RTRIM(vbpAdjustment)) = '''')
+                THEN ''Missing vbpAdjustment: required when vbpParticipantIndicator is populated.''
+            WHEN TRY_CONVERT(decimal(18,6), vbpAdjustment) IS NULL
+                THEN ''Invalid vbpAdjustment: must be numeric.''
+            WHEN TRY_CONVERT(decimal(18,6), vbpAdjustment) &lt; 0
+                THEN ''Invalid vbpAdjustment: must be &gt;= 0.''
+        END
+    FROM provider_specific_file
+    WHERE
+        (
+            (vbpParticipantIndicator IS NULL OR LTRIM(RTRIM(vbpParticipantIndicator)) = '''')
+            AND LTRIM(RTRIM(vbpAdjustment)) &lt;&gt; ''''
+        )
+        OR
+        (
+            LTRIM(RTRIM(vbpParticipantIndicator)) &lt;&gt; ''''
+            AND (
+                vbpAdjustment IS NULL
+                OR LTRIM(RTRIM(vbpAdjustment)) = ''''
+                OR TRY_CONVERT(decimal(18,6), vbpAdjustment) IS NULL
+                OR TRY_CONVERT(decimal(18,6), vbpAdjustment) &lt; 0
+            )
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'HRR Participant Indicator Valid Value Check',
+    'hrrParticipantIndicator',
+    'hrrParticipantIndicator must be a non-null, non-blank numeric value of 0, 1, or 2.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''HRR Participant Indicator Valid Value Check'', ''hrrParticipantIndicator'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        hrrParticipantIndicator IS NULL
+        OR LTRIM(RTRIM(hrrParticipantIndicator)) = ''''
+        OR TRY_CONVERT(int, hrrParticipantIndicator) IS NULL
+        OR TRY_CONVERT(int, hrrParticipantIndicator) NOT IN (0, 1, 2);
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, hrrParticipantIndicator,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, hrrParticipantIndicator,
+        ''hrrParticipantIndicator'', hrrParticipantIndicator,
+        ''Invalid hrrParticipantIndicator: must be numeric and one of {0, 1, 2} (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        hrrParticipantIndicator IS NULL
+        OR LTRIM(RTRIM(hrrParticipantIndicator)) = ''''
+        OR TRY_CONVERT(int, hrrParticipantIndicator) IS NULL
+        OR TRY_CONVERT(int, hrrParticipantIndicator) NOT IN (0, 1, 2);
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'HRR Adjustment Factor Conditional Validity Check',
+    'hrrAdjustment',
+    'hrrAdjustment must be numeric and &gt;= 0 when hrrParticipantIndicator = 1. If hrrParticipantIndicator is 0 or 2, hrrAdjustment must be blank, NULL, or zero.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''HRR Adjustment Factor Conditional Validity Check'', ''hrrAdjustment'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        -- Case 1: indicator = 0 or 2 → hrrAdjustment must be blank/NULL/zero
+        (
+            TRY_CONVERT(int, hrrParticipantIndicator) IN (0, 2)
+            AND (
+                TRY_CONVERT(decimal(18,6), hrrAdjustment) IS NOT NULL
+                AND TRY_CONVERT(decimal(18,6), hrrAdjustment) &lt;&gt; 0
+            )
+        )
+        OR
+        -- Case 2: indicator = 1 → hrrAdjustment must be numeric &gt;= 0
+        (
+            TRY_CONVERT(int, hrrParticipantIndicator) = 1
+            AND (
+                hrrAdjustment IS NULL
+                OR LTRIM(RTRIM(hrrAdjustment)) = ''''
+                OR TRY_CONVERT(decimal(18,6), hrrAdjustment) IS NULL
+                OR TRY_CONVERT(decimal(18,6), hrrAdjustment) &lt; 0
+            )
+        );
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, hrrAdjustment,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, hrrAdjustment,
+        ''hrrAdjustment'', hrrAdjustment,
+        CASE
+            WHEN TRY_CONVERT(int, hrrParticipantIndicator) IN (0, 2)
+                 AND TRY_CONVERT(decimal(18,6), hrrAdjustment) &lt;&gt; 0
+                 AND TRY_CONVERT(decimal(18,6), hrrAdjustment) IS NOT NULL
+                THEN ''Invalid hrrAdjustment: when hrrParticipantIndicator is 0 or 2, value must be blank, NULL, or zero.''
+            WHEN TRY_CONVERT(int, hrrParticipantIndicator) = 1
+                 AND (hrrAdjustment IS NULL OR LTRIM(RTRIM(hrrAdjustment)) = '''')
+                THEN ''Missing hrrAdjustment: required when hrrParticipantIndicator = 1.''
+            WHEN TRY_CONVERT(decimal(18,6), hrrAdjustment) IS NULL
+                THEN ''Invalid hrrAdjustment: must be numeric.''
+            WHEN TRY_CONVERT(decimal(18,6), hrrAdjustment) &lt; 0
+                THEN ''Invalid hrrAdjustment: must be &gt;= 0.''
+        END
+    FROM provider_specific_file
+    WHERE
+        (
+            TRY_CONVERT(int, hrrParticipantIndicator) IN (0, 2)
+            AND (
+                TRY_CONVERT(decimal(18,6), hrrAdjustment) IS NOT NULL
+                AND TRY_CONVERT(decimal(18,6), hrrAdjustment) &lt;&gt; 0
+            )
+        )
+        OR
+        (
+            TRY_CONVERT(int, hrrParticipantIndicator) = 1
+            AND (
+                hrrAdjustment IS NULL
+                OR LTRIM(RTRIM(hrrAdjustment)) = ''''
+                OR TRY_CONVERT(decimal(18,6), hrrAdjustment) IS NULL
+                OR TRY_CONVERT(decimal(18,6), hrrAdjustment) &lt; 0
+            )
+        );
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'HAC Reduction Participant Indicator Valid Value Check',
+    'hacReductionParticipantIndicator',
+    'hacReductionParticipantIndicator must be either ''Y'' or ''N'' (after trimming).',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''HAC Reduction Participant Indicator Valid Value Check'', ''hacReductionParticipantIndicator'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        hacReductionParticipantIndicator IS NULL
+        OR LTRIM(RTRIM(hacReductionParticipantIndicator)) = ''''
+        OR LTRIM(RTRIM(hacReductionParticipantIndicator)) NOT IN (''Y'', ''N'');
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, hacReductionParticipantIndicator,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, hacReductionParticipantIndicator,
+        ''hacReductionParticipantIndicator'', hacReductionParticipantIndicator,
+        ''Invalid hacReductionParticipantIndicator: must be ''Y'' or ''N'' (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        hacReductionParticipantIndicator IS NULL
+        OR LTRIM(RTRIM(hacReductionParticipantIndicator)) = ''''
+        OR LTRIM(RTRIM(hacReductionParticipantIndicator)) NOT IN (''Y'', ''N'');
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule is not required, during profiling observed that for this PDE only 0.0000 is populating </t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Uncompensated Care Amount Numeric Validity Check',
+    'uncompensatedCareAmount',
+    'uncompensatedCareAmount must be a non-null, non-blank numeric value greater than or equal to zero.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Uncompensated Care Amount Numeric Validity Check'', ''uncompensatedCareAmount'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        uncompensatedCareAmount IS NULL
+        OR LTRIM(RTRIM(uncompensatedCareAmount)) = ''''
+        OR TRY_CONVERT(decimal(18,6), uncompensatedCareAmount) IS NULL
+        OR TRY_CONVERT(decimal(18,6), uncompensatedCareAmount) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, uncompensatedCareAmount,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, uncompensatedCareAmount,
+        ''uncompensatedCareAmount'', uncompensatedCareAmount,
+        ''Invalid uncompensatedCareAmount: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        uncompensatedCareAmount IS NULL
+        OR LTRIM(RTRIM(uncompensatedCareAmount)) = ''''
+        OR TRY_CONVERT(decimal(18,6), uncompensatedCareAmount) IS NULL
+        OR TRY_CONVERT(decimal(18,6), uncompensatedCareAmount) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'EHR Reduction Indicator Valid Value Check',
+    'ehrReductionIndicator',
+    'ehrReductionIndicator must be blank/NULL or the value ''Y'' (after trimming).',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''EHR Reduction Indicator Valid Value Check'', ''ehrReductionIndicator'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(ehrReductionIndicator)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(ehrReductionIndicator)) NOT IN (''Y'');
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, ehrReductionIndicator,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, ehrReductionIndicator,
+        ''ehrReductionIndicator'', ehrReductionIndicator,
+        ''Invalid ehrReductionIndicator: must be blank/NULL or ''Y'' (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(ehrReductionIndicator)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(ehrReductionIndicator)) NOT IN (''Y'');
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Low-Volume Adjustment Factor Numeric Validity Check',
+    'lowVolumeAdjustmentFactor',
+    'lowVolumeAdjustmentFactor must be a non-null, non-blank numeric value greater than or equal to zero.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Low-Volume Adjustment Factor Numeric Validity Check'', ''lowVolumeAdjustmentFactor'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        lowVolumeAdjustmentFactor IS NULL
+        OR LTRIM(RTRIM(lowVolumeAdjustmentFactor)) = ''''
+        OR TRY_CONVERT(decimal(18,6), lowVolumeAdjustmentFactor) IS NULL
+        OR TRY_CONVERT(decimal(18,6), lowVolumeAdjustmentFactor) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, lowVolumeAdjustmentFactor,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, lowVolumeAdjustmentFactor,
+        ''lowVolumeAdjustmentFactor'', lowVolumeAdjustmentFactor,
+        ''Invalid lowVolumeAdjustmentFactor: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        lowVolumeAdjustmentFactor IS NULL
+        OR LTRIM(RTRIM(lowVolumeAdjustmentFactor)) = ''''
+        OR TRY_CONVERT(decimal(18,6), lowVolumeAdjustmentFactor) IS NULL
+        OR TRY_CONVERT(decimal(18,6), lowVolumeAdjustmentFactor) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'County Code Format Validity Check',
+    'countyCode',
+    'countyCode must be a non-null, non-blank 5-digit numeric code (after trimming).',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''County Code Format Validity Check'', ''countyCode'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        countyCode IS NULL
+        OR LTRIM(RTRIM(countyCode)) = ''''
+        OR LEN(LTRIM(RTRIM(countyCode))) &lt;&gt; 5
+        OR TRY_CONVERT(int, LTRIM(RTRIM(countyCode))) IS NULL;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, countyCode,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, countyCode,
+        ''countyCode'', countyCode,
+        CASE
+            WHEN countyCode IS NULL OR LTRIM(RTRIM(countyCode)) = ''''
+                THEN ''Missing countyCode: must be a 5-digit numeric code.''
+            WHEN LEN(LTRIM(RTRIM(countyCode))) &lt;&gt; 5
+                THEN ''Invalid countyCode: must be exactly 5 characters after trimming.''
+            WHEN TRY_CONVERT(int, LTRIM(RTRIM(countyCode))) IS NULL
+                THEN ''Invalid countyCode: must contain only numeric digits.''
+        END
+    FROM provider_specific_file
+    WHERE
+        countyCode IS NULL
+        OR LTRIM(RTRIM(countyCode)) = ''''
+        OR LEN(LTRIM(RTRIM(countyCode))) &lt;&gt; 5
+        OR TRY_CONVERT(int, LTRIM(RTRIM(countyCode))) IS NULL;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>The rule does not make sense according to profiling, profiling show its either 0.000000000 or null, therefore would need more information about rule.</t>
+  </si>
+  <si>
+    <t>99.9% of time PDE is not populating, and it is populating for two records with value 2 instead of Y.</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Supplemental Wage Index Numeric Validity Check',
+    'supplementalWageIndex',
+    'supplementalWageIndex must be a non-null, non-blank numeric value greater than or equal to zero. Zero is valid when the supplemental wage index does not apply.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Supplemental Wage Index Numeric Validity Check'', ''supplementalWageIndex'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        supplementalWageIndex IS NULL
+        OR LTRIM(RTRIM(supplementalWageIndex)) = ''''
+        OR TRY_CONVERT(decimal(18,6), supplementalWageIndex) IS NULL
+        OR TRY_CONVERT(decimal(18,6), supplementalWageIndex) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, supplementalWageIndex,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, supplementalWageIndex,
+        ''supplementalWageIndex'', supplementalWageIndex,
+        ''Invalid supplementalWageIndex: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        supplementalWageIndex IS NULL
+        OR LTRIM(RTRIM(supplementalWageIndex)) = ''''
+        OR TRY_CONVERT(decimal(18,6), supplementalWageIndex) IS NULL
+        OR TRY_CONVERT(decimal(18,6), supplementalWageIndex) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Supplemental Wage Index Indicator Valid Value Check',
+    'supplementalWageIndexIndicator',
+    'supplementalWageIndexIndicator must be blank/NULL or one of the values {1, 2, 3} (after trimming).',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Supplemental Wage Index Indicator Valid Value Check'', ''supplementalWageIndexIndicator'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(supplementalWageIndexIndicator)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(supplementalWageIndexIndicator)) NOT IN (''1'', ''2'', ''3'');
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, supplementalWageIndexIndicator,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, supplementalWageIndexIndicator,
+        ''supplementalWageIndexIndicator'', supplementalWageIndexIndicator,
+        ''Invalid supplementalWageIndexIndicator: must be blank/NULL or one of {1, 2, 3} (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(supplementalWageIndexIndicator)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(supplementalWageIndexIndicator)) NOT IN (''1'', ''2'', ''3'');
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Wage Index Reclassification Indicator Valid Value Check',
+    'changeCodeWageIndexReclassification',
+    'changeCodeWageIndexReclassification must be blank/NULL or one of the values ''Y'' or ''N'' (after trimming).',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''Wage Index Reclassification Indicator Valid Value Check'', ''changeCodeWageIndexReclassification'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(changeCodeWageIndexReclassification)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(changeCodeWageIndexReclassification)) NOT IN (''Y'', ''N'');
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, changeCodeWageIndexReclassification,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, changeCodeWageIndexReclassification,
+        ''changeCodeWageIndexReclassification'', changeCodeWageIndexReclassification,
+        ''Invalid changeCodeWageIndexReclassification: must be blank/NULL or ''Y'' or ''N'' (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        LTRIM(RTRIM(changeCodeWageIndexReclassification)) &lt;&gt; ''''
+        AND LTRIM(RTRIM(changeCodeWageIndexReclassification)) NOT IN (''Y'', ''N'');
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'National Provider Identifier Format Validity Check',
+    'nationalProviderIdentifier',
+    'nationalProviderIdentifier must be a non-null, non-blank 10-digit numeric value (after trimming).',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id}, ''National Provider Identifier Format Validity Check'', ''nationalProviderIdentifier'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        nationalProviderIdentifier IS NULL
+        OR LTRIM(RTRIM(nationalProviderIdentifier)) = ''''
+        OR LEN(LTRIM(RTRIM(nationalProviderIdentifier))) &lt;&gt; 10
+        OR TRY_CONVERT(bigint, LTRIM(RTRIM(nationalProviderIdentifier))) IS NULL;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, nationalProviderIdentifier AS npi_value,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, nationalProviderIdentifier,
+        ''nationalProviderIdentifier'', nationalProviderIdentifier,
+        CASE
+            WHEN nationalProviderIdentifier IS NULL OR LTRIM(RTRIM(nationalProviderIdentifier)) = ''''
+                THEN ''Missing NPI: must be a 10-digit numeric value.''
+            WHEN LEN(LTRIM(RTRIM(nationalProviderIdentifier))) &lt;&gt; 10
+                THEN ''Invalid NPI: must be exactly 10 characters after trimming.''
+            WHEN TRY_CONVERT(bigint, LTRIM(RTRIM(nationalProviderIdentifier))) IS NULL
+                THEN ''Invalid NPI: must contain only numeric digits.''
+        END
+    FROM provider_specific_file
+    WHERE
+        nationalProviderIdentifier IS NULL
+        OR LTRIM(RTRIM(nationalProviderIdentifier)) = ''''
+        OR LEN(LTRIM(RTRIM(nationalProviderIdentifier))) &lt;&gt; 10
+        OR TRY_CONVERT(bigint, LTRIM(RTRIM(nationalProviderIdentifier))) IS NULL;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Pass-Through Amount for Allogeneic Stem Cell Acquisition Numeric Validity Check',
+    'passThroughAmountForAllogenicStemCellAcquisition',
+    'passThroughAmountForAllogenicStemCellAcquisition must be a non-null, non-blank numeric value greater than or equal to zero.',
+    '
+    -- Insert summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id},
+        ''Pass-Through Amount for Allogeneic Stem Cell Acquisition Numeric Validity Check'',
+        ''passThroughAmountForAllogenicStemCellAcquisition'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        passThroughAmountForAllogenicStemCellAcquisition IS NULL
+        OR LTRIM(RTRIM(passThroughAmountForAllogenicStemCellAcquisition)) = ''''
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForAllogenicStemCellAcquisition) IS NULL
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForAllogenicStemCellAcquisition) &lt; 0;
+    -- Insert detailed failures
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate,
+        passThroughAmountForAllogenicStemCellAcquisition,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate,
+        passThroughAmountForAllogenicStemCellAcquisition,
+        ''passThroughAmountForAllogenicStemCellAcquisition'',
+        passThroughAmountForAllogenicStemCellAcquisition,
+        ''Invalid passThroughAmountForAllogenicStemCellAcquisition: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        passThroughAmountForAllogenicStemCellAcquisition IS NULL
+        OR LTRIM(RTRIM(passThroughAmountForAllogenicStemCellAcquisition)) = ''''
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForAllogenicStemCellAcquisition) IS NULL
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForAllogenicStemCellAcquisition) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>Data profling show data is single digits and for most of the records its not populating, therefore we would need more information before implementing DQ rule</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Last Updated ISO 8601 Date Validity Check',
+    'lastUpdated',
+    'lastUpdated must be a non-null, non-blank ISO 8601 date (YYYY-MM-DD) and a valid calendar date.',
+    '
+    -- Summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id},
+        ''Last Updated ISO 8601 Date Validity Check'',
+        ''lastUpdated'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        lastUpdated IS NULL
+        OR LTRIM(RTRIM(lastUpdated)) = ''''
+        OR LEN(LTRIM(RTRIM(lastUpdated))) &lt;&gt; 10
+        OR SUBSTRING(LTRIM(RTRIM(lastUpdated)), 5, 1) &lt;&gt; ''-''
+        OR SUBSTRING(LTRIM(RTRIM(lastUpdated)), 8, 1) &lt;&gt; ''-''
+        OR TRY_CONVERT(date, LTRIM(RTRIM(lastUpdated))) IS NULL;
+    -- Details
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate, lastUpdated,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate, lastUpdated,
+        ''lastUpdated'', lastUpdated,
+        CASE
+            WHEN lastUpdated IS NULL OR LTRIM(RTRIM(lastUpdated)) = ''''
+                THEN ''Missing lastUpdated: must be a valid ISO 8601 date (YYYY-MM-DD).''
+            WHEN LEN(LTRIM(RTRIM(lastUpdated))) &lt;&gt; 10
+                THEN ''Invalid lastUpdated: must be exactly 10 characters (YYYY-MM-DD).''
+            WHEN SUBSTRING(LTRIM(RTRIM(lastUpdated)), 5, 1) &lt;&gt; ''-''
+              OR SUBSTRING(LTRIM(RTRIM(lastUpdated)), 8, 1) &lt;&gt; ''-''
+                THEN ''Invalid lastUpdated: must use hyphens in positions 5 and 8.''
+            WHEN TRY_CONVERT(date, LTRIM(RTRIM(lastUpdated))) IS NULL
+                THEN ''Invalid lastUpdated: not a valid calendar date.''
+        END
+    FROM provider_specific_file
+    WHERE
+        lastUpdated IS NULL
+        OR LTRIM(RTRIM(lastUpdated)) = ''''
+        OR LEN(LTRIM(RTRIM(lastUpdated))) &lt;&gt; 10
+        OR SUBSTRING(LTRIM(RTRIM(lastUpdated)), 5, 1) &lt;&gt; ''-''
+        OR SUBSTRING(LTRIM(RTRIM(lastUpdated)), 8, 1) &lt;&gt; ''-''
+        OR TRY_CONVERT(date, LTRIM(RTRIM(lastUpdated))) IS NULL;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Pass-Through Amount for Direct GME Numeric Validity Check',
+    'passThroughAmountForDirectGraduateMedicalEducation',
+    'passThroughAmountForDirectGraduateMedicalEducation must be a non-null, non-blank numeric value greater than or equal to zero.',
+    '
+    -- Summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id},
+        ''Pass-Through Amount for Direct GME Numeric Validity Check'',
+        ''passThroughAmountForDirectGraduateMedicalEducation'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        passThroughAmountForDirectGraduateMedicalEducation IS NULL
+        OR LTRIM(RTRIM(passThroughAmountForDirectGraduateMedicalEducation)) = ''''
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForDirectGraduateMedicalEducation) IS NULL
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForDirectGraduateMedicalEducation) &lt; 0;
+    -- Details
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate,
+        passThroughAmountForDirectGraduateMedicalEducation,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate,
+        passThroughAmountForDirectGraduateMedicalEducation,
+        ''passThroughAmountForDirectGraduateMedicalEducation'',
+        passThroughAmountForDirectGraduateMedicalEducation,
+        ''Invalid passThroughAmountForDirectGraduateMedicalEducation: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        passThroughAmountForDirectGraduateMedicalEducation IS NULL
+        OR LTRIM(RTRIM(passThroughAmountForDirectGraduateMedicalEducation)) = ''''
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForDirectGraduateMedicalEducation) IS NULL
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForDirectGraduateMedicalEducation) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Pass-Through Amount for Kidney Acquisition Numeric Validity Check',
+    'passThroughAmountForKidneyAcquisition',
+    'passThroughAmountForKidneyAcquisition must be a non-null, non-blank numeric value greater than or equal to zero.',
+    '
+    -- Summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id},
+        ''Pass-Through Amount for Kidney Acquisition Numeric Validity Check'',
+        ''passThroughAmountForKidneyAcquisition'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        passThroughAmountForKidneyAcquisition IS NULL
+        OR LTRIM(RTRIM(passThroughAmountForKidneyAcquisition)) = ''''
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForKidneyAcquisition) IS NULL
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForKidneyAcquisition) &lt; 0;
+    -- Details
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate,
+        passThroughAmountForKidneyAcquisition,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate,
+        passThroughAmountForKidneyAcquisition,
+        ''passThroughAmountForKidneyAcquisition'',
+        passThroughAmountForKidneyAcquisition,
+        ''Invalid passThroughAmountForKidneyAcquisition: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        passThroughAmountForKidneyAcquisition IS NULL
+        OR LTRIM(RTRIM(passThroughAmountForKidneyAcquisition)) = ''''
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForKidneyAcquisition) IS NULL
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForKidneyAcquisition) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO dq_rules (
+    rule_name,
+    field_name,
+    rule_description,
+    rule_sql,
+    severity,
+    active_flag
+)
+VALUES (
+    'Pass-Through Amount for Supply Chain Numeric Validity Check',
+    'passThroughAmountForSupplyChain',
+    'passThroughAmountForSupplyChain must be a non-null, non-blank numeric value greater than or equal to zero.',
+    '
+    -- Summary
+    INSERT INTO dq_rule_summary (
+        run_id, rule_id, rule_name, field_name, failure_count
+    )
+    SELECT
+        {run_id}, {rule_id},
+        ''Pass-Through Amount for Supply Chain Numeric Validity Check'',
+        ''passThroughAmountForSupplyChain'',
+        COUNT(*)
+    FROM provider_specific_file
+    WHERE
+        passThroughAmountForSupplyChain IS NULL
+        OR LTRIM(RTRIM(passThroughAmountForSupplyChain)) = ''''
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForSupplyChain) IS NULL
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForSupplyChain) &lt; 0;
+    -- Details
+    INSERT INTO dq_results (
+        run_id, rule_id,
+        providerCcn, nationalProviderIdentifier, effectiveDate,
+        passThroughAmountForSupplyChain,
+        field_name, invalid_value, failure_detail
+    )
+    SELECT
+        {run_id}, {rule_id},
+        providerCcn, nationalProviderIdentifier, effectiveDate,
+        passThroughAmountForSupplyChain,
+        ''passThroughAmountForSupplyChain'',
+        passThroughAmountForSupplyChain,
+        ''Invalid passThroughAmountForSupplyChain: must be numeric and greater than or equal to zero (after trimming)''
+    FROM provider_specific_file
+    WHERE
+        passThroughAmountForSupplyChain IS NULL
+        OR LTRIM(RTRIM(passThroughAmountForSupplyChain)) = ''''
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForSupplyChain) IS NULL
+        OR TRY_CONVERT(decimal(18,6), passThroughAmountForSupplyChain) &lt; 0;
+    ',
+    'Error',
+    1
+);</t>
   </si>
 </sst>
 </file>
@@ -528,20 +3815,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,6 +3844,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -877,600 +4167,1198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF2EA20-B8BC-434F-8908-45646AD8B25C}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="108.21875" customWidth="1"/>
-    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="82.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="F3" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="F4" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="F5" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="F6" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="F7" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F16" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F18" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="D35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="C36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="C37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+      <c r="C38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+      <c r="C40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+      <c r="C41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+      <c r="C42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+      <c r="C43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+      <c r="C44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+      <c r="C45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+      <c r="C46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+      <c r="C47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="C48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+      <c r="C49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+      <c r="C50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+      <c r="C51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+      <c r="C52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+      <c r="C53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+      <c r="C54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+      <c r="C55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+      <c r="C56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="C57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+      <c r="C58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+      <c r="C59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+      <c r="C60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+      <c r="C61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+      <c r="C62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+      <c r="C63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+      <c r="C64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+      <c r="C65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+      <c r="C66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+      <c r="C67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+      <c r="C68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
